--- a/medicine/Enfance/Roderic_Jeffries/Roderic_Jeffries.xlsx
+++ b/medicine/Enfance/Roderic_Jeffries/Roderic_Jeffries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roderic Jeffries, né le 21 octobre 1926 à Londres en Angleterre, est un écrivain britannique de roman policier ayant utilisé plusieurs pseudonymes dont Peter Alding et Jeffrey Ashford.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils du romancier Graham Montague Jeffries, connu sous le pseudonyme de Bruce Graeme pour être l'auteur de la série de romans policiers consacrée à Blackshirt, et un des descendants du quaker William Penn, fondateur de Philadelphie et qui donna son nom à la Pennsylvanie[1]. Après des études universitaires à l'école de navigation de l'Université de Southampton en 1942 et 1943, il est officier dans la marine marchande britannique de 1943 à 1949 avant de reprendre des études de droit de 1952 à 1954. Il exerce la profession de juriste pendant quelques années, ce qui explique les explications précises sur les rouages de la justice dont bénéficient ses romans qui appartiennent presque toujours au genre de la procédure policière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils du romancier Graham Montague Jeffries, connu sous le pseudonyme de Bruce Graeme pour être l'auteur de la série de romans policiers consacrée à Blackshirt, et un des descendants du quaker William Penn, fondateur de Philadelphie et qui donna son nom à la Pennsylvanie. Après des études universitaires à l'école de navigation de l'Université de Southampton en 1942 et 1943, il est officier dans la marine marchande britannique de 1943 à 1949 avant de reprendre des études de droit de 1952 à 1954. Il exerce la profession de juriste pendant quelques années, ce qui explique les explications précises sur les rouages de la justice dont bénéficient ses romans qui appartiennent presque toujours au genre de la procédure policière.
 Il commence sa carrière littéraire en 1952 en reprenant en partie le pseudonyme de son père, Bruce Graeme, pour écrire sous celui de Roderic Graeme une vingtaine de romans du gentleman-cambrioleur Blackshirt.
 Sous le pseudonyme de Jeffrey Ashford, il écrit de nombreux romans policiers, dont la série consacrée à l'inspecteur Don Kerry, et, sous celui de Peter Alding, une série sur des membres du C.I.D. Room, le constable Kerr et l'inspecteur Fusil de Scotland Yard. Installé à Majorque en Espagne, il accorde au personnage du détective espagnol Enrique Alvarez une série signée de son nom. Il est également l'auteur de romans pour la jeunesse.
 </t>
@@ -546,8 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Enrique Alvarez
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Enrique Alvarez</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mistakenly in Mallorca (1974)
 Two-Faced Death (1976)
 Troubled Deaths (1977)
@@ -584,7 +607,47 @@
 A Question of Motive (2009)
 Murder, Majorcan Style (2011)
 Murdered by Nature (2012)
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Evidence of the Accused (1961)
 Police and Detection (1962)
 Exhibit No. Thirteen (1962)
@@ -610,15 +673,131 @@
 Sunken Danger (1985)
 Meeting Trouble (1986)
 The Man Who Couldn't Be (1987)
-Romans de littérature d’enfance et de jeunesse
-Eighteen Desperate Hours (1979) Publié en français sous le titre Les Horloges de la nuit, Paris, Nathan, coll. « Arc en poche » no 417, 1983 ; réédition, Paris, Nathan, coll. « Pleine Lune policier » no 36, 1995 ; réédition, Paris, Pocket, coll. « Pocket jeunesse » no 501, 1999
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eighteen Desperate Hours (1979) Publié en français sous le titre Les Horloges de la nuit, Paris, Nathan, coll. « Arc en poche » no 417, 1983 ; réédition, Paris, Nathan, coll. « Pleine Lune policier » no 36, 1995 ; réédition, Paris, Pocket, coll. « Pocket jeunesse » no 501, 1999
 Voyage into Danger (1982) Publié en français sous le titre La Route du danger, Paris, Nathan, coll. « Arc en ciel poche » no 872, 1988 ; réédition, Paris, Nathan, coll. « Pleine Lune policier » no 62, 1996
 The Man Who Couldn’t Be (1987) Publié en français sous le titre Choc dans le brouillard, Paris, Nathan, 1989
-Hostage (1990) Publié en français sous le titre L'Otage, Paris, Bayard, coll. « Je bouquine » no 31, 1995
-Série policière Don Kerry signée Jeffrey Ashford
-Investigations Are Proceeding ou The D.I. (1961)
-Enquiries Are Continuing ou The Superintendant's Room (1964)
-Autres romans policiers signés Jeffrey Ashford
+Hostage (1990) Publié en français sous le titre L'Otage, Paris, Bayard, coll. « Je bouquine » no 31, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série policière Don Kerry signée Jeffrey Ashford</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Investigations Are Proceeding ou The D.I. (1961)
+Enquiries Are Continuing ou The Superintendant's Room (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans policiers signés Jeffrey Ashford</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Councel for the Defense (1960) Publié en français sous le titre Faire l'impossible, Paris, Julliard, coll. « PJ » no 7, 1970
 The Burden of Proof (1962)
 Will Anyone Who Saw the Accident... (1963)
@@ -669,7 +848,47 @@
 Criminal Innocence (2010)
 Justice Deferred (2011)
 Damned by Logic (2013)
-Série policière C.I.D. Room signée Peter Alding
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série policière C.I.D. Room signée Peter Alding</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The C.I.D. Room (1967)
 Circle of Danger (1968) Publié en français sous le titre La Blonde et la Belle, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1288, 1973 ; réédition, Paris, Librairie des Champs-Élysées, coll. « Club des masques » no 448, 1981
 Murder among Thieves (1969) Publié en français sous le titre Les morts ne tuent pas, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1304, 1974
@@ -684,7 +903,47 @@
 A Man Condemned (1981)
 Betrayed by Death (1982)
 One Man's Justice (1983)
-Série Blackshirt signée Roderic Graeme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Blackshirt signée Roderic Graeme</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Concerning Blackshirt (1952)
 Blackshirt Passes By (1953)
 Blackshirt Wins the Trick (1953)
@@ -705,69 +964,115 @@
 Danger for Blackshirt (1965)
 Blackshirt at Large (1966)
 Blackshirt in Peril (1967)
-Série Brandy signée Roderic Graeme
-Where's Brandy? (1953)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Brandy signée Roderic Graeme</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Where's Brandy? (1953)
 Brandy Goes a Cruising (1954)
 Brandy Ahoy! (1955)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roderic_Jeffries</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptation
-1986 : Piège à flics, épisode de la série télévisée française Série noire réalisé par Dominique Othenin-Girard, adaptation du roman éponyme</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roderic_Jeffries</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1986 : Piège à flics, épisode de la série télévisée française Série noire réalisé par Dominique Othenin-Girard, adaptation du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roderic_Jeffries</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251).
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910686-45-1, OCLC 315873361).
